--- a/public/tester-template.xlsx
+++ b/public/tester-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rabahzeineddine/Development/Sicoob/assistant-tester/src/assets/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rabahzeineddine/Development/Sicoob/assistant-tester/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEFB24-9662-654B-ADD0-EC0C77B93DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589D59AD-15D4-694A-82DD-77C9E3D4DF48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19580" activeTab="1" xr2:uid="{819FF052-E50B-664C-A47F-1AB6192BB2CA}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19540" xr2:uid="{819FF052-E50B-664C-A47F-1AB6192BB2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="dialog" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,339 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rabah Zeineddine</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{45CE1F76-F2E9-434B-BE46-4EB8C5BEE0B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">As variáveis que devem existir no contexto para realizar o teste em formato JSON
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Valida o json no https://jsonlint.com/ antes de inserir aqui
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C806ED47-5CF3-734D-90AF-A113CC3F3612}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">varaiveis de contexto esperadas na saida </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Valida o json no https://jsonlint.com/ antes de inserir aqui
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{73F2CEEE-6CC6-5A49-8EA8-A0E780499A08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Representa uma saída alternativa para E3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{1FE18C09-7B40-834D-9435-412541A8F758}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Representa uma saída alternativa para E3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{BEE020D0-1677-4B46-A8FE-6D22BBC10D55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Representa uma saída alternativa para E3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7CE09854-8C3C-3D41-B6FD-59F96ACBC142}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Isso representa uma segunda saída de texto para a mesma entrada, id: 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{AEFA320E-9F1B-4145-8817-76A19CF0F237}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Representa uma pergunta que deve ser feita após a pergunta de id: 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{3900185F-2F10-284B-9110-94D73866CE99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rabah Zeineddine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Desligar essa linha no teste
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>disabled</t>
   </si>
@@ -55,9 +386,6 @@
     <t>output-variation</t>
   </si>
   <si>
-    <t>context</t>
-  </si>
-  <si>
     <t>assistant-url</t>
   </si>
   <si>
@@ -73,9 +401,6 @@
     <t>https://api.us-south.assistant.watson.cloud.ibm.com</t>
   </si>
   <si>
-    <t>Olá</t>
-  </si>
-  <si>
     <t>Olá, como posso te ajudar?</t>
   </si>
   <si>
@@ -92,13 +417,52 @@
   </si>
   <si>
     <t>Infelizmente não!</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>input-context</t>
+  </si>
+  <si>
+    <t>expected-context</t>
+  </si>
+  <si>
+    <t>como está o tempo hoje?</t>
+  </si>
+  <si>
+    <t>Eu não consigo te responder sobre isso</t>
+  </si>
+  <si>
+    <t>Eu não aprendi ainda sobre esse assunto</t>
+  </si>
+  <si>
+    <t>Não sei falar sobre o tempo</t>
+  </si>
+  <si>
+    <t>Desculpe, eu não entendi</t>
+  </si>
+  <si>
+    <t>Consegui te ajudar?</t>
+  </si>
+  <si>
+    <t>Como vai?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu vou bem e voce? </t>
+  </si>
+  <si>
+    <t>{ "scope": "test"}</t>
+  </si>
+  <si>
+    <t>{ "action" : "FLY"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +476,25 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -136,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -146,6 +529,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -162,6 +546,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,11 +848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665FB38A-36E5-CC40-9EB3-CFD63E1DFF0D}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665FB38A-36E5-CC40-9EB3-CFD63E1DFF0D}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,11 +860,12 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,53 +885,106 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -550,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6841C45-7351-484D-BE7B-13832F307F1D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -564,21 +1006,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>43922</v>
